--- a/stm2017_nb/stm2017_nb_raw.xlsx
+++ b/stm2017_nb/stm2017_nb_raw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbressoud/Dropbox/HEP/2020-2021/KeynoteS - 31 aout au 2 septembre 2020 - SSRE2020/Symposium - Pédagogie spécialisée/matériel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasbressoud/Documents/GitHub/r-projects/stm2017_nb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E001785F-BE29-BC4D-9610-DD52CAF2CAD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67640FD1-3280-5140-BF51-59AA09B0BCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Réponses au formulaire 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="63">
   <si>
     <t>fille</t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>sol</t>
+  </si>
+  <si>
+    <t>ano1</t>
+  </si>
+  <si>
+    <t>ano2</t>
+  </si>
+  <si>
+    <t>ano3</t>
+  </si>
+  <si>
+    <t>ano4</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4326,7 +4338,9 @@
       <c r="A43" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="D43">
         <v>3</v>
       </c>
@@ -4410,7 +4424,9 @@
       <c r="A44" t="s">
         <v>32</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="D44">
         <v>4</v>
       </c>
@@ -4494,7 +4510,9 @@
       <c r="A45" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="D45">
         <v>4</v>
       </c>
@@ -4572,7 +4590,9 @@
       <c r="A46" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D46">
         <v>4</v>
       </c>
